--- a/Bayer-Automation/src/test/java/com/bayer/corp/Regions/Germany/GDPR/config/MIRA_Websites_URLs.xlsx
+++ b/Bayer-Automation/src/test/java/com/bayer/corp/Regions/Germany/GDPR/config/MIRA_Websites_URLs.xlsx
@@ -14,702 +14,354 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="232">
-  <si>
-    <t>Domain</t>
-  </si>
-  <si>
-    <t>Division</t>
-  </si>
-  <si>
-    <t>Asset Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>pallas-versicherung.de</t>
   </si>
   <si>
-    <t>Corporate Functions &amp; Countries</t>
-  </si>
-  <si>
     <t>webguide.bayercropscience.com</t>
   </si>
   <si>
-    <t>Crop Science</t>
-  </si>
-  <si>
-    <t>Webguide Bayer CropScience</t>
-  </si>
-  <si>
     <t>www.nunhems.de</t>
   </si>
   <si>
-    <t>Nunhems, Germany</t>
-  </si>
-  <si>
     <t>www.beecare.bayer.com</t>
   </si>
   <si>
-    <t>Bayer Bee Care</t>
-  </si>
-  <si>
     <t>clipmyfarm.de</t>
   </si>
   <si>
-    <t>Clip My Farm</t>
-  </si>
-  <si>
     <t>www.cropscience.bayer.de</t>
   </si>
   <si>
-    <t>CropScience - German Portal</t>
-  </si>
-  <si>
     <t>www.premeo.de</t>
   </si>
   <si>
-    <t>BayDir Premeo</t>
-  </si>
-  <si>
     <t>pim.bayercropscience.de</t>
   </si>
   <si>
-    <t>Product Information Management Germany</t>
-  </si>
-  <si>
     <t>pim.bayergarten.de</t>
   </si>
   <si>
-    <t>Product Information Management Bayergarten</t>
-  </si>
-  <si>
     <t>environmentalscience.bayer.de</t>
   </si>
   <si>
-    <t>Bayer Environmental Sciences â€“ Germany</t>
-  </si>
-  <si>
     <t>digital-farming.de</t>
   </si>
   <si>
-    <t>Bayer Digital Farming</t>
-  </si>
-  <si>
     <t>www.cropscience.bayer.com</t>
   </si>
   <si>
-    <t>Global Subgroup Portal</t>
-  </si>
-  <si>
     <t>www.pflanzenschutzberater.de</t>
   </si>
   <si>
-    <t>Bayer CropScience Pflanzenschutzberater</t>
-  </si>
-  <si>
     <t>www.monheim.bayer.de</t>
   </si>
   <si>
-    <t>Bayer Monheim Site</t>
-  </si>
-  <si>
     <t>agrar.bayer.de</t>
   </si>
   <si>
-    <t>Alietteâ„¢ WG, Germany</t>
-  </si>
-  <si>
     <t>test.dev.b-fit.bayerhealthcare.de</t>
   </si>
   <si>
-    <t>Pharma</t>
-  </si>
-  <si>
-    <t>dev-BSPFitnessCenterBerlin</t>
-  </si>
-  <si>
     <t>mein-lieblingsmoment.de</t>
   </si>
   <si>
-    <t>Consumer Health</t>
-  </si>
-  <si>
     <t>dev.vetportal.bayer.de</t>
   </si>
   <si>
-    <t>Animal Health</t>
-  </si>
-  <si>
     <t>www.bepanthen.de</t>
   </si>
   <si>
-    <t>BepanthenGermany</t>
-  </si>
-  <si>
     <t>pharma.bayer.com</t>
   </si>
   <si>
-    <t>BSPGermany</t>
-  </si>
-  <si>
     <t>bepanthol.de</t>
   </si>
   <si>
-    <t>BepantholGermany</t>
-  </si>
-  <si>
     <t>parasitenfrei.bayer.de</t>
   </si>
   <si>
-    <t>ParasitenfreiGermany</t>
-  </si>
-  <si>
     <t>www.zoofach-aktuell.de</t>
   </si>
   <si>
-    <t>ZoofachAktuellGermany</t>
-  </si>
-  <si>
     <t>bitterfeld.bayer.de</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>aposervice.bayer.de</t>
   </si>
   <si>
-    <t>BayASGermany</t>
-  </si>
-  <si>
     <t>radiologie.bayer.de</t>
   </si>
   <si>
-    <t>RadiologieGermany</t>
-  </si>
-  <si>
     <t>www.leberkrebs.de</t>
   </si>
   <si>
-    <t>LeberkrebsGermany</t>
-  </si>
-  <si>
     <t>wuppertal.bayer.de</t>
   </si>
   <si>
-    <t>LocationWuppertal</t>
-  </si>
-  <si>
     <t>www.ms-gateway.de</t>
   </si>
   <si>
-    <t>MSGatewayGermany</t>
-  </si>
-  <si>
     <t>www.gesundheit.bayer.de</t>
   </si>
   <si>
-    <t>GesundheitGermany</t>
-  </si>
-  <si>
     <t>www.bayerfarm.de</t>
   </si>
   <si>
-    <t>BayerFarmDE</t>
-  </si>
-  <si>
     <t>www.rennie.de</t>
   </si>
   <si>
-    <t>RennieGermany</t>
-  </si>
-  <si>
     <t>gesundebienen.bayer.de</t>
   </si>
   <si>
-    <t>GesundebienenGermany</t>
-  </si>
-  <si>
     <t>priorin.de</t>
   </si>
   <si>
-    <t>PriorinGermany</t>
-  </si>
-  <si>
     <t>www.ilja-rogoff.de</t>
   </si>
   <si>
-    <t>IljaRogoffGermany</t>
-  </si>
-  <si>
     <t>www.aktren.de</t>
   </si>
   <si>
-    <t>AktrenGermany</t>
-  </si>
-  <si>
     <t>antithrombose.de</t>
   </si>
   <si>
-    <t>AntithromboseGermany</t>
-  </si>
-  <si>
     <t>www.betaferon.de</t>
   </si>
   <si>
-    <t>BetaferonGermany</t>
-  </si>
-  <si>
     <t>www.antra.de</t>
   </si>
   <si>
-    <t>AntraGermany</t>
-  </si>
-  <si>
     <t>www.supradyn.de</t>
   </si>
   <si>
-    <t>SupradynGermany</t>
-  </si>
-  <si>
     <t>www.canesten.de</t>
   </si>
   <si>
-    <t>CanestenGermany</t>
-  </si>
-  <si>
     <t>meineverhuetung.de</t>
   </si>
   <si>
     <t>m.faktormap.de</t>
   </si>
   <si>
-    <t>Faktormap</t>
-  </si>
-  <si>
     <t>www.haemophilie-kontrovers.de</t>
   </si>
   <si>
-    <t>HÃ¤mophilie Kontrovers</t>
-  </si>
-  <si>
     <t>frauenaerzte.de</t>
   </si>
   <si>
     <t>jenapharm.de</t>
   </si>
   <si>
-    <t>Jenapharm</t>
-  </si>
-  <si>
     <t>phytohustil-aktion.de</t>
   </si>
   <si>
-    <t>Phytohustil Germany</t>
-  </si>
-  <si>
     <t>praxisgynmanagerin.de</t>
   </si>
   <si>
-    <t>Praxis Gyn Managerin</t>
-  </si>
-  <si>
     <t>galafem.de</t>
   </si>
   <si>
-    <t>Galafem Germany</t>
-  </si>
-  <si>
     <t>maenneraerzte.de</t>
   </si>
   <si>
     <t>maennergesundheit-colleg.de</t>
   </si>
   <si>
-    <t>MÃ¤nnergesundheit Colleg</t>
-  </si>
-  <si>
     <t>www.baylab.bayer.de</t>
   </si>
   <si>
-    <t>Bayer Baylab</t>
-  </si>
-  <si>
     <t>test.forum-oculus.de</t>
   </si>
   <si>
-    <t>ForumOculusDE</t>
-  </si>
-  <si>
     <t>aspirin-neu-entdecken.de</t>
   </si>
   <si>
-    <t>AspirinNeuEntdeckenDE</t>
-  </si>
-  <si>
     <t>blog.canesten.de</t>
   </si>
   <si>
-    <t>blog.canesten.de NEW</t>
-  </si>
-  <si>
     <t>test.blog.canesten.de</t>
   </si>
   <si>
-    <t>Canesten Germany Blog (test.blog.canesten.de)</t>
-  </si>
-  <si>
     <t>medinfo.bayer.de</t>
   </si>
   <si>
-    <t>MedWisDE</t>
-  </si>
-  <si>
     <t>iberogast.de</t>
   </si>
   <si>
-    <t>IberogastGermany</t>
-  </si>
-  <si>
     <t>www.steigerwald.de</t>
   </si>
   <si>
-    <t>Steigerwald.de</t>
-  </si>
-  <si>
     <t>leganto.bayer.de</t>
   </si>
   <si>
     <t>ophthalmologie.bayer.de</t>
   </si>
   <si>
-    <t>OphthalomologieGermany</t>
-  </si>
-  <si>
     <t>das-diabetische-auge.de</t>
   </si>
   <si>
-    <t>DasDiabetischeAugeGermany</t>
-  </si>
-  <si>
     <t>laif900balance.de</t>
   </si>
   <si>
-    <t>Laif900Balance</t>
-  </si>
-  <si>
     <t>depression-behandeln-natuerlich.de</t>
   </si>
   <si>
-    <t>Laif900Patienten</t>
-  </si>
-  <si>
     <t>initiative-gesunder-magen.de</t>
   </si>
   <si>
-    <t>DEInitiativeGesunderMagen</t>
-  </si>
-  <si>
     <t>laif900.de</t>
   </si>
   <si>
-    <t>Laif900DE</t>
-  </si>
-  <si>
     <t>www.influex.de</t>
   </si>
   <si>
-    <t>InfluexDE</t>
-  </si>
-  <si>
     <t>legaplus.bayer.de</t>
   </si>
   <si>
     <t>onkologisch.slides.bayer.de</t>
   </si>
   <si>
-    <t>OnkoSlidesBayerDE</t>
-  </si>
-  <si>
     <t>phytohustil.de</t>
   </si>
   <si>
-    <t>DEPhytohustil</t>
-  </si>
-  <si>
     <t>produktinformation.bayer.de</t>
   </si>
   <si>
-    <t>ProduktInfoDE</t>
-  </si>
-  <si>
     <t>foerderprogramm-augenheilkunde.de</t>
   </si>
   <si>
-    <t>FoerderprogrammAugenheilkundeDE</t>
-  </si>
-  <si>
     <t>slides.bayer.de</t>
   </si>
   <si>
-    <t>SlidesGermany</t>
-  </si>
-  <si>
     <t>happytummy.rennie.de</t>
   </si>
   <si>
-    <t>HappytummyRennieDE</t>
-  </si>
-  <si>
     <t>schilddruesenkrebs-therapie.de</t>
   </si>
   <si>
-    <t>SchildrÃ¼senkrebsGermany</t>
-  </si>
-  <si>
     <t>newsletter.ms-gateway.de</t>
   </si>
   <si>
-    <t>NewsletterMSGatewayDE</t>
-  </si>
-  <si>
     <t>www.rote-karte-dem-schlaganfall.de</t>
   </si>
   <si>
-    <t>RoteKarteDemSchlaganfallDE</t>
-  </si>
-  <si>
     <t>katzenwelt.bayer.de</t>
   </si>
   <si>
-    <t>KatzenweltDE</t>
-  </si>
-  <si>
     <t>test.playgroundnick.bayerbbs-hosting.com</t>
   </si>
   <si>
-    <t>Business Services</t>
-  </si>
-  <si>
-    <t>Test for IE11 - 1</t>
-  </si>
-  <si>
     <t>elevit.info</t>
   </si>
   <si>
-    <t>ElevitDE</t>
-  </si>
-  <si>
     <t>www.scheringpg.de</t>
   </si>
   <si>
-    <t>BSPGermanyScheringPG</t>
-  </si>
-  <si>
     <t>rivaroxaban.slides.bayer.de</t>
   </si>
   <si>
-    <t>RivaroxabanSlides</t>
-  </si>
-  <si>
     <t>asteroid-studie.de</t>
   </si>
   <si>
-    <t>Asteroid-Studie</t>
-  </si>
-  <si>
     <t>gynvital.de</t>
   </si>
   <si>
-    <t>GynvitalDE</t>
-  </si>
-  <si>
     <t>fokus-knochenmetastasen.de</t>
   </si>
   <si>
-    <t>XofigoPatGermany</t>
-  </si>
-  <si>
     <t>xofigo.de</t>
   </si>
   <si>
-    <t>XofigoGermany</t>
-  </si>
-  <si>
     <t>stivarga.de</t>
   </si>
   <si>
-    <t>StivargaGermany</t>
-  </si>
-  <si>
     <t>visusvital.de</t>
   </si>
   <si>
-    <t>VisusvitalGermany</t>
-  </si>
-  <si>
     <t>www.kiel.bayer.de</t>
   </si>
   <si>
-    <t>kvp-kiel.de</t>
-  </si>
-  <si>
     <t>freeandclear.com.br</t>
   </si>
   <si>
-    <t>www.hautvorteil.de</t>
-  </si>
-  <si>
     <t>bayerfarm.tv</t>
   </si>
   <si>
-    <t>BayerfarmTVGermany</t>
-  </si>
-  <si>
     <t>gynfakultaet.de</t>
   </si>
   <si>
-    <t>GyncollegGermany</t>
-  </si>
-  <si>
     <t>www.rheinische-pensionskasse.de</t>
   </si>
   <si>
     <t>nierenkrebs.de</t>
   </si>
   <si>
-    <t>NierenkrebsGermany</t>
-  </si>
-  <si>
     <t>www.erkaeltung-online.de</t>
   </si>
   <si>
-    <t>ErkaeltungOnlineGermany</t>
-  </si>
-  <si>
     <t>search-ms.bayerbbs-hosting.com</t>
   </si>
   <si>
-    <t>MSGatewaySearch</t>
-  </si>
-  <si>
     <t>www.bayerpharma.cz</t>
   </si>
   <si>
-    <t>BSPFitnessCenterBerlin</t>
-  </si>
-  <si>
     <t>www.berocca.de</t>
   </si>
   <si>
-    <t>BeroccaGermany</t>
-  </si>
-  <si>
     <t>www.seresto.de</t>
   </si>
   <si>
-    <t>SerestoGermany</t>
-  </si>
-  <si>
     <t>tierfreunde.bayer.de</t>
   </si>
   <si>
-    <t>TierfreundeGermany</t>
-  </si>
-  <si>
     <t>vetportal.bayer.de</t>
   </si>
   <si>
-    <t>VetportalGermany</t>
-  </si>
-  <si>
     <t>tiergesundheit.bayer.de</t>
   </si>
   <si>
-    <t>TiergesundheitGermany</t>
-  </si>
-  <si>
     <t>trialfinder.pharma.bayer.com</t>
   </si>
   <si>
-    <t>TrialBspDe</t>
-  </si>
-  <si>
     <t>www.hccstudyweb-internal.net</t>
   </si>
   <si>
-    <t>HCCStudywebInternal</t>
-  </si>
-  <si>
     <t>www.mutter-kind-gesundheit.de</t>
   </si>
   <si>
-    <t>MutterKindGesundheitGermany</t>
-  </si>
-  <si>
     <t>www.lungenhochdruck.de</t>
   </si>
   <si>
-    <t>LungenhochdruckGermany</t>
-  </si>
-  <si>
     <t>www.saludmasculina.com.ar</t>
   </si>
   <si>
-    <t>ScherCheDe</t>
-  </si>
-  <si>
     <t>www.lefax.de</t>
   </si>
   <si>
-    <t>LefaxGermany</t>
-  </si>
-  <si>
     <t>dreifachschutz.bayer.de</t>
   </si>
   <si>
-    <t>AHTechnologyUSA</t>
-  </si>
-  <si>
     <t>lungenwuermer.de</t>
   </si>
   <si>
-    <t>LungenwuermerGermany</t>
-  </si>
-  <si>
     <t>test-trialfinder.bayerhealthcare.com</t>
   </si>
   <si>
-    <t>TestTriald</t>
-  </si>
-  <si>
     <t>www.pharma.bayer.de</t>
   </si>
   <si>
-    <t>PharmaGermany</t>
-  </si>
-  <si>
     <t>jetzt-lieben.de</t>
   </si>
   <si>
-    <t>EdyfunctGermany</t>
-  </si>
-  <si>
     <t>kinderförderung.bepanthen.de</t>
   </si>
   <si>
-    <t>KinderfÃ¶rderungGermany</t>
-  </si>
-  <si>
     <t>www.aspirin.de</t>
   </si>
   <si>
-    <t>AspirinGermany</t>
-  </si>
-  <si>
     <t>www.nexavar.de</t>
-  </si>
-  <si>
-    <t>NexvarGermany</t>
   </si>
 </sst>
 </file>
@@ -1206,51 +858,79 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1260,9 +940,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1300,7 +980,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1372,7 +1052,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1549,1298 +1229,716 @@
   <dimension ref="A1:C117"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>52</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>4</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C39" s="4"/>
     </row>
     <row r="40" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C40" s="4"/>
     </row>
     <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C41" s="4"/>
     </row>
     <row r="42" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C42" s="4"/>
     </row>
     <row r="43" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C45" s="4"/>
     </row>
     <row r="46" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C46" s="4"/>
     </row>
     <row r="47" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C47" s="4"/>
     </row>
     <row r="48" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C48" s="4"/>
     </row>
     <row r="49" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C49" s="4"/>
     </row>
     <row r="50" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C50" s="4"/>
     </row>
     <row r="51" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C51" s="4"/>
     </row>
     <row r="52" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C52" s="4"/>
     </row>
     <row r="53" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C53" s="4"/>
     </row>
     <row r="54" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C57" s="4"/>
     </row>
     <row r="58" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>52</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C58" s="4"/>
     </row>
     <row r="59" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C59" s="4"/>
     </row>
     <row r="60" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C60" s="4"/>
     </row>
     <row r="61" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C61" s="4"/>
     </row>
     <row r="62" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C62" s="4"/>
     </row>
     <row r="63" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C63" s="4"/>
     </row>
     <row r="64" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C64" s="4"/>
     </row>
     <row r="65" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C65" s="4"/>
     </row>
     <row r="66" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C66" s="4"/>
     </row>
     <row r="67" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C67" s="4"/>
     </row>
     <row r="68" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C68" s="4"/>
     </row>
     <row r="69" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C69" s="4"/>
     </row>
     <row r="70" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C70" s="4"/>
     </row>
     <row r="71" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C71" s="4"/>
     </row>
     <row r="72" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C72" s="4"/>
     </row>
     <row r="73" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C73" s="4"/>
     </row>
     <row r="74" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C74" s="4"/>
     </row>
     <row r="75" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C75" s="4"/>
     </row>
     <row r="76" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C76" s="4"/>
     </row>
     <row r="77" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C77" s="4"/>
     </row>
     <row r="78" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C78" s="4"/>
     </row>
     <row r="79" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C79" s="4"/>
     </row>
     <row r="80" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>157</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C80" s="4"/>
     </row>
     <row r="81" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C81" s="4"/>
     </row>
     <row r="82" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C82" s="4"/>
     </row>
     <row r="83" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C83" s="4"/>
     </row>
     <row r="84" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C84" s="4"/>
     </row>
     <row r="85" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C85" s="4"/>
     </row>
     <row r="86" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C86" s="4"/>
     </row>
     <row r="87" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C87" s="4"/>
     </row>
     <row r="88" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C88" s="4"/>
     </row>
     <row r="89" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C89" s="4"/>
     </row>
     <row r="90" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C90" s="4"/>
     </row>
     <row r="91" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C91" s="4"/>
     </row>
     <row r="92" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C92" s="4"/>
     </row>
     <row r="93" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C93" s="4"/>
     </row>
     <row r="94" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>4</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C94" s="4"/>
     </row>
     <row r="95" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C95" s="4"/>
     </row>
     <row r="96" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C96" s="4"/>
     </row>
     <row r="97" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C97" s="4"/>
     </row>
     <row r="98" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="C98" s="4"/>
     </row>
     <row r="99" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C99" s="4"/>
     </row>
     <row r="100" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C100" s="4"/>
     </row>
     <row r="101" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C101" s="4"/>
     </row>
     <row r="102" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C102" s="4"/>
     </row>
     <row r="103" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C103" s="4"/>
     </row>
     <row r="104" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C104" s="4"/>
     </row>
     <row r="105" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C105" s="4"/>
     </row>
     <row r="106" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C106" s="4"/>
     </row>
     <row r="107" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C107" s="4"/>
     </row>
     <row r="108" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C108" s="4"/>
     </row>
     <row r="109" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C109" s="4"/>
     </row>
     <row r="110" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C110" s="4"/>
     </row>
     <row r="111" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C111" s="4"/>
     </row>
     <row r="112" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C112" s="4"/>
     </row>
     <row r="113" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C113" s="4"/>
     </row>
     <row r="114" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C114" s="4"/>
     </row>
     <row r="115" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C115" s="4"/>
     </row>
     <row r="116" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C116" s="4"/>
     </row>
     <row r="117" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="A117" s="4"/>
+      <c r="C117" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>

--- a/Bayer-Automation/src/test/java/com/bayer/corp/Regions/Germany/GDPR/config/MIRA_Websites_URLs.xlsx
+++ b/Bayer-Automation/src/test/java/com/bayer/corp/Regions/Germany/GDPR/config/MIRA_Websites_URLs.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28680" windowHeight="12585"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15000" windowHeight="6885" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018-01-12_DocumentList_Website" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="240">
   <si>
     <t>pallas-versicherung.de</t>
   </si>
@@ -362,6 +363,378 @@
   </si>
   <si>
     <t>www.nexavar.de</t>
+  </si>
+  <si>
+    <t>Asset Name</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Privacy Found (Y/N)</t>
+  </si>
+  <si>
+    <t>Which privacy name</t>
+  </si>
+  <si>
+    <t>Url Directed to</t>
+  </si>
+  <si>
+    <t>Phrase 1 (T/F)</t>
+  </si>
+  <si>
+    <t>Phrase 2 (T/F)</t>
+  </si>
+  <si>
+    <t>Phrase 3 (T/F)</t>
+  </si>
+  <si>
+    <t>Phrase 4 (T/F)</t>
+  </si>
+  <si>
+    <t>Corporate Functions &amp; Countries</t>
+  </si>
+  <si>
+    <t>Webguide Bayer CropScience</t>
+  </si>
+  <si>
+    <t>Crop Science</t>
+  </si>
+  <si>
+    <t>Nunhems, Germany</t>
+  </si>
+  <si>
+    <t>Bayer Bee Care</t>
+  </si>
+  <si>
+    <t>Clip My Farm</t>
+  </si>
+  <si>
+    <t>CropScience - German Portal</t>
+  </si>
+  <si>
+    <t>BayDir Premeo</t>
+  </si>
+  <si>
+    <t>Product Information Management Germany</t>
+  </si>
+  <si>
+    <t>Product Information Management Bayergarten</t>
+  </si>
+  <si>
+    <t>Bayer Environmental Sciences â€“ Germany</t>
+  </si>
+  <si>
+    <t>Bayer Digital Farming</t>
+  </si>
+  <si>
+    <t>Global Subgroup Portal</t>
+  </si>
+  <si>
+    <t>Bayer CropScience Pflanzenschutzberater</t>
+  </si>
+  <si>
+    <t>Bayer Monheim Site</t>
+  </si>
+  <si>
+    <t>Alietteâ„¢ WG, Germany</t>
+  </si>
+  <si>
+    <t>dev-BSPFitnessCenterBerlin</t>
+  </si>
+  <si>
+    <t>Pharma</t>
+  </si>
+  <si>
+    <t>Consumer Health</t>
+  </si>
+  <si>
+    <t>Animal Health</t>
+  </si>
+  <si>
+    <t>BepanthenGermany</t>
+  </si>
+  <si>
+    <t>BSPGermany</t>
+  </si>
+  <si>
+    <t>BepantholGermany</t>
+  </si>
+  <si>
+    <t>ParasitenfreiGermany</t>
+  </si>
+  <si>
+    <t>ZoofachAktuellGermany</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>BayASGermany</t>
+  </si>
+  <si>
+    <t>RadiologieGermany</t>
+  </si>
+  <si>
+    <t>LeberkrebsGermany</t>
+  </si>
+  <si>
+    <t>LocationWuppertal</t>
+  </si>
+  <si>
+    <t>MSGatewayGermany</t>
+  </si>
+  <si>
+    <t>GesundheitGermany</t>
+  </si>
+  <si>
+    <t>BayerFarmDE</t>
+  </si>
+  <si>
+    <t>RennieGermany</t>
+  </si>
+  <si>
+    <t>GesundebienenGermany</t>
+  </si>
+  <si>
+    <t>PriorinGermany</t>
+  </si>
+  <si>
+    <t>IljaRogoffGermany</t>
+  </si>
+  <si>
+    <t>AktrenGermany</t>
+  </si>
+  <si>
+    <t>AntithromboseGermany</t>
+  </si>
+  <si>
+    <t>BetaferonGermany</t>
+  </si>
+  <si>
+    <t>AntraGermany</t>
+  </si>
+  <si>
+    <t>SupradynGermany</t>
+  </si>
+  <si>
+    <t>CanestenGermany</t>
+  </si>
+  <si>
+    <t>Faktormap</t>
+  </si>
+  <si>
+    <t>HÃ¤mophilie Kontrovers</t>
+  </si>
+  <si>
+    <t>Jenapharm</t>
+  </si>
+  <si>
+    <t>Phytohustil Germany</t>
+  </si>
+  <si>
+    <t>Praxis Gyn Managerin</t>
+  </si>
+  <si>
+    <t>Galafem Germany</t>
+  </si>
+  <si>
+    <t>MÃ¤nnergesundheit Colleg</t>
+  </si>
+  <si>
+    <t>Bayer Baylab</t>
+  </si>
+  <si>
+    <t>ForumOculusDE</t>
+  </si>
+  <si>
+    <t>AspirinNeuEntdeckenDE</t>
+  </si>
+  <si>
+    <t>blog.canesten.de NEW</t>
+  </si>
+  <si>
+    <t>Canesten Germany Blog (test.blog.canesten.de)</t>
+  </si>
+  <si>
+    <t>MedWisDE</t>
+  </si>
+  <si>
+    <t>IberogastGermany</t>
+  </si>
+  <si>
+    <t>Steigerwald.de</t>
+  </si>
+  <si>
+    <t>OphthalomologieGermany</t>
+  </si>
+  <si>
+    <t>DasDiabetischeAugeGermany</t>
+  </si>
+  <si>
+    <t>Laif900Balance</t>
+  </si>
+  <si>
+    <t>Laif900Patienten</t>
+  </si>
+  <si>
+    <t>DEInitiativeGesunderMagen</t>
+  </si>
+  <si>
+    <t>Laif900DE</t>
+  </si>
+  <si>
+    <t>InfluexDE</t>
+  </si>
+  <si>
+    <t>OnkoSlidesBayerDE</t>
+  </si>
+  <si>
+    <t>DEPhytohustil</t>
+  </si>
+  <si>
+    <t>ProduktInfoDE</t>
+  </si>
+  <si>
+    <t>FoerderprogrammAugenheilkundeDE</t>
+  </si>
+  <si>
+    <t>SlidesGermany</t>
+  </si>
+  <si>
+    <t>HappytummyRennieDE</t>
+  </si>
+  <si>
+    <t>SchildrÃ¼senkrebsGermany</t>
+  </si>
+  <si>
+    <t>NewsletterMSGatewayDE</t>
+  </si>
+  <si>
+    <t>RoteKarteDemSchlaganfallDE</t>
+  </si>
+  <si>
+    <t>KatzenweltDE</t>
+  </si>
+  <si>
+    <t>Test for IE11 - 1</t>
+  </si>
+  <si>
+    <t>Business Services</t>
+  </si>
+  <si>
+    <t>ElevitDE</t>
+  </si>
+  <si>
+    <t>BSPGermanyScheringPG</t>
+  </si>
+  <si>
+    <t>RivaroxabanSlides</t>
+  </si>
+  <si>
+    <t>Asteroid-Studie</t>
+  </si>
+  <si>
+    <t>GynvitalDE</t>
+  </si>
+  <si>
+    <t>XofigoPatGermany</t>
+  </si>
+  <si>
+    <t>XofigoGermany</t>
+  </si>
+  <si>
+    <t>StivargaGermany</t>
+  </si>
+  <si>
+    <t>VisusvitalGermany</t>
+  </si>
+  <si>
+    <t>kvp-kiel.de</t>
+  </si>
+  <si>
+    <t>www.hautvorteil.de</t>
+  </si>
+  <si>
+    <t>BayerfarmTVGermany</t>
+  </si>
+  <si>
+    <t>GyncollegGermany</t>
+  </si>
+  <si>
+    <t>NierenkrebsGermany</t>
+  </si>
+  <si>
+    <t>ErkaeltungOnlineGermany</t>
+  </si>
+  <si>
+    <t>MSGatewaySearch</t>
+  </si>
+  <si>
+    <t>BSPFitnessCenterBerlin</t>
+  </si>
+  <si>
+    <t>BeroccaGermany</t>
+  </si>
+  <si>
+    <t>SerestoGermany</t>
+  </si>
+  <si>
+    <t>TierfreundeGermany</t>
+  </si>
+  <si>
+    <t>VetportalGermany</t>
+  </si>
+  <si>
+    <t>TiergesundheitGermany</t>
+  </si>
+  <si>
+    <t>TrialBspDe</t>
+  </si>
+  <si>
+    <t>HCCStudywebInternal</t>
+  </si>
+  <si>
+    <t>MutterKindGesundheitGermany</t>
+  </si>
+  <si>
+    <t>LungenhochdruckGermany</t>
+  </si>
+  <si>
+    <t>ScherCheDe</t>
+  </si>
+  <si>
+    <t>LefaxGermany</t>
+  </si>
+  <si>
+    <t>AHTechnologyUSA</t>
+  </si>
+  <si>
+    <t>LungenwuermerGermany</t>
+  </si>
+  <si>
+    <t>TestTriald</t>
+  </si>
+  <si>
+    <t>PharmaGermany</t>
+  </si>
+  <si>
+    <t>EdyfunctGermany</t>
+  </si>
+  <si>
+    <t>KinderfÃ¶rderungGermany</t>
+  </si>
+  <si>
+    <t>AspirinGermany</t>
+  </si>
+  <si>
+    <t>NexvarGermany</t>
   </si>
 </sst>
 </file>
@@ -1228,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1943,4 +2316,2382 @@
   </sheetData>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L117"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="23.375" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="78" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+    </row>
+    <row r="79" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+    </row>
+    <row r="80" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+    </row>
+    <row r="81" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D98" s="4"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+    </row>
+    <row r="103" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+    </row>
+    <row r="104" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+    </row>
+    <row r="105" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+    </row>
+    <row r="106" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+    </row>
+    <row r="107" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
+    </row>
+    <row r="108" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+    </row>
+    <row r="109" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="3"/>
+    </row>
+    <row r="110" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+    </row>
+    <row r="111" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+    </row>
+    <row r="112" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
+    </row>
+    <row r="113" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
+    </row>
+    <row r="114" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
+    </row>
+    <row r="115" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A115" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="3"/>
+    </row>
+    <row r="116" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="3"/>
+    </row>
+    <row r="117" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Bayer-Automation/src/test/java/com/bayer/corp/Regions/Germany/GDPR/config/MIRA_Websites_URLs.xlsx
+++ b/Bayer-Automation/src/test/java/com/bayer/corp/Regions/Germany/GDPR/config/MIRA_Websites_URLs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>URL</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Phrase 5 Found</t>
   </si>
   <si>
-    <t>https://www.cropscience.bayer.de</t>
+    <t>http://agrar.bayer.de/</t>
   </si>
   <si>
     <t>Datenschutzerklärung</t>
@@ -59,7 +59,7 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="0.8"/>
+      <sz val="11.0"/>
       <b val="true"/>
       <color indexed="12"/>
     </font>
@@ -94,20 +94,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="32.25390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="6.328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21.0625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.28515625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="20.671875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="6.328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="6.328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="6.328125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="6.328125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="6.328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="15.1015625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="15.1015625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="15.1015625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="15.1015625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="15.1015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -141,7 +141,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -162,32 +162,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Bayer-Automation/src/test/java/com/bayer/corp/Regions/Germany/GDPR/config/MIRA_Websites_URLs.xlsx
+++ b/Bayer-Automation/src/test/java/com/bayer/corp/Regions/Germany/GDPR/config/MIRA_Websites_URLs.xlsx
@@ -38,10 +38,10 @@
     <t>Phrase 5 Found</t>
   </si>
   <si>
-    <t>http://agrar.bayer.de/</t>
+    <t>https://radiologie.bayer.de/home</t>
   </si>
   <si>
-    <t>Datenschutzerklärung</t>
+    <t>German privacy statement name not found</t>
   </si>
 </sst>
 </file>
@@ -100,9 +100,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="31.359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="18.28515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="39.78125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="15.1015625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="15.1015625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="15.1015625" customWidth="true" bestFit="true"/>
@@ -141,7 +141,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>

--- a/Bayer-Automation/src/test/java/com/bayer/corp/Regions/Germany/GDPR/config/MIRA_Websites_URLs.xlsx
+++ b/Bayer-Automation/src/test/java/com/bayer/corp/Regions/Germany/GDPR/config/MIRA_Websites_URLs.xlsx
@@ -41,7 +41,7 @@
     <t>https://radiologie.bayer.de/home</t>
   </si>
   <si>
-    <t>German privacy statement name not found</t>
+    <t>Datenschutzerklärung</t>
   </si>
 </sst>
 </file>
@@ -102,7 +102,7 @@
   <cols>
     <col min="1" max="1" width="31.359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="18.28515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.78125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.671875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="15.1015625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="15.1015625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="15.1015625" customWidth="true" bestFit="true"/>
@@ -141,7 +141,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
